--- a/IPL/Kings XI Punjab/Sarfaraz Khan .xlsx
+++ b/IPL/Kings XI Punjab/Sarfaraz Khan .xlsx
@@ -408,13 +408,13 @@
         <v>Kings XI Punjab</v>
       </c>
       <c r="C2" t="str">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D2" t="str">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
@@ -428,13 +428,13 @@
         <v>Kings XI Punjab</v>
       </c>
       <c r="C3" t="str">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" t="str">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>Kings XI Punjab</v>
       </c>
       <c r="C4" t="str">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="str">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" t="str">
         <v>2</v>

--- a/IPL/Kings XI Punjab/Sarfaraz Khan .xlsx
+++ b/IPL/Kings XI Punjab/Sarfaraz Khan .xlsx
@@ -428,13 +428,13 @@
         <v>Kings XI Punjab</v>
       </c>
       <c r="C3" t="str">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" t="str">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>Kings XI Punjab</v>
       </c>
       <c r="C4" t="str">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" t="str">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="str">
         <v>0</v>
